--- a/11-CollaborationList/UCSF.xlsx
+++ b/11-CollaborationList/UCSF.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66D4110-4326-034F-967A-1CEB986CCF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AE6E0B2-B50A-DE40-8394-B7F9075F0B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="7180" windowWidth="28040" windowHeight="17440" xr2:uid="{B041FEAE-BE1E-B04B-A3B2-E9C9448B7A33}"/>
+    <workbookView xWindow="0" yWindow="12120" windowWidth="57600" windowHeight="16220" xr2:uid="{B041FEAE-BE1E-B04B-A3B2-E9C9448B7A33}"/>
   </bookViews>
   <sheets>
-    <sheet name="JohnAdamsInstitute" sheetId="1" r:id="rId1"/>
+    <sheet name="UCSF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -85,9 +85,6 @@
     <t>T.</t>
   </si>
   <si>
-    <t>Thongchai.Masilela@ucsf.edu</t>
-  </si>
-  <si>
     <t>UCSF</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>T. Masilela</t>
+  </si>
+  <si>
+    <t>Thongchai.Masilela@ucsf.edu; thongchai.masilela@curie.fr</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,16 +1075,16 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
       </c>
       <c r="I2">
         <v>0</v>

--- a/11-CollaborationList/UCSF.xlsx
+++ b/11-CollaborationList/UCSF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/2025-11-Refresh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AE6E0B2-B50A-DE40-8394-B7F9075F0B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69252FB-9A44-6D49-A67E-58F2C08716A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12120" windowWidth="57600" windowHeight="16220" xr2:uid="{B041FEAE-BE1E-B04B-A3B2-E9C9448B7A33}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{B041FEAE-BE1E-B04B-A3B2-E9C9448B7A33}"/>
   </bookViews>
   <sheets>
     <sheet name="UCSF" sheetId="1" r:id="rId1"/>
@@ -82,26 +82,26 @@
     <t>Masilela</t>
   </si>
   <si>
-    <t>T.</t>
-  </si>
-  <si>
     <t>UCSF</t>
   </si>
   <si>
     <t>Department of Radiation Oncology, University of California San Francisco, San Francisco, CA, 94115, USA</t>
   </si>
   <si>
-    <t>T. Masilela</t>
-  </si>
-  <si>
-    <t>Thongchai.Masilela@ucsf.edu; thongchai.masilela@curie.fr</t>
+    <t>Thongchai.Masilela@ucsf.edu</t>
+  </si>
+  <si>
+    <t>T. A. M.</t>
+  </si>
+  <si>
+    <t>T. A. M. Masilela</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -232,6 +232,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -534,7 +542,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -577,11 +585,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -615,6 +625,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -646,7 +657,7 @@
     <tableColumn id="2" xr3:uid="{B67FEE32-D589-444B-BA62-7224D1002356}" name="Name"/>
     <tableColumn id="3" xr3:uid="{1ED0182F-5856-C54E-B5DC-60E2D2786496}" name="Surname"/>
     <tableColumn id="4" xr3:uid="{3E879ED8-95C3-3743-B931-8484983FA3CC}" name="Initials"/>
-    <tableColumn id="5" xr3:uid="{2DE21A6D-88CE-0846-9A74-84417E291AFB}" name="email address"/>
+    <tableColumn id="5" xr3:uid="{2DE21A6D-88CE-0846-9A74-84417E291AFB}" name="email address" dataCellStyle="Hyperlink"/>
     <tableColumn id="6" xr3:uid="{18678272-EDA5-4B43-8983-0CEFF2DDBF0A}" name="Name on Publications "/>
     <tableColumn id="7" xr3:uid="{7AB55DB6-F15C-E84C-8246-C7569044F74B}" name="Organisation"/>
     <tableColumn id="8" xr3:uid="{D20A0633-24F1-F248-9FCD-8C62B5406D56}" name="Address"/>
@@ -983,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A38D86E-A0CA-AC4E-9E28-0478CB9EC53A}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1072,28 +1083,31 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{5D33EE70-F245-1240-9E40-8273CCACAB03}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>